--- a/Joins.xlsx
+++ b/Joins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\2023Jan11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0227560-F225-451E-B6CC-8D4A7F82D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4FA27-DE12-4135-B253-FCBBC59EC72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3502A209-94BA-4AB7-B11D-97ECF3E8D100}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
   <si>
     <t>CUSTOMER_TBL</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>SELECT * FROM CUSTOMER_TBL c INNER JOIN TRANSACTION_TBL t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>SELECT * FROM CUSTOMER_TBL c LEFT JOIN TRANSACTION_TBL t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>SELECT * FROM CUSTOMER_TBL c RIGHT JOIN TRANSACTION_TBL t ON c.custid=t.custid</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN</t>
   </si>
 </sst>
 </file>
@@ -226,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -236,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF4385A-8811-4350-BD22-9D50F5974FBF}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,6 +1042,532 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="E50" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Joins.xlsx
+++ b/Joins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\2023Jan11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4FA27-DE12-4135-B253-FCBBC59EC72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7D20A-E147-4965-84DB-4BCF30616D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3502A209-94BA-4AB7-B11D-97ECF3E8D100}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="39">
   <si>
     <t>CUSTOMER_TBL</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>RIGHT JOIN</t>
+  </si>
+  <si>
+    <t>FULL JOIN</t>
+  </si>
+  <si>
+    <t>SELECT * FROM CUSTOMER_TBL c JOIN TRANSACTION_TBL t;</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF4385A-8811-4350-BD22-9D50F5974FBF}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,6 +1574,1419 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7</v>
+      </c>
+      <c r="E61" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>9</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <v>7</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6</v>
+      </c>
+      <c r="E90" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1">
+        <v>7</v>
+      </c>
+      <c r="E91" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1">
+        <v>8</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="1">
+        <v>5</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6</v>
+      </c>
+      <c r="E100" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="1">
+        <v>7</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="1">
+        <v>8</v>
+      </c>
+      <c r="E102" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="1">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1002</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="1">
+        <v>6</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="1">
+        <v>7</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1004</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="1">
+        <v>8</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9</v>
+      </c>
+      <c r="E113" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" s="1">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
